--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,104 +512,144 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>011120</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>富国创新科技混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>92.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>21.08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006081</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票A</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006080</t>
+          <t>004374</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票C</t>
+          <t>华泰保兴吉年丰混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -800,15 +910,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>86.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006882</t>
+          <t>005904</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合A</t>
+          <t>华泰保兴成长优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006883</t>
+          <t>004375</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合C</t>
+          <t>华泰保兴吉年丰混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.25</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.55</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>006882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>华泰保兴健康消费混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011120</t>
+          <t>006883</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国创新科技混合C</t>
+          <t>华泰保兴健康消费混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004374</t>
+          <t>011120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合A</t>
+          <t>富国创新科技混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004375</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合C</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>005905</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>华泰保兴成长优选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.55</v>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.59</v>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,681 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2709,7 +2710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,17 +2721,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2740,14 +2761,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.98</v>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2756,14 +2799,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -2772,14 +2837,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.55</v>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2788,14 +2875,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.59</v>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2804,13 +2913,201 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2990,7 +2991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3001,17 +3002,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3021,14 +3042,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3037,14 +3080,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.98</v>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3053,14 +3118,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3069,14 +3156,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.55</v>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3085,14 +3194,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.59</v>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3101,13 +3232,483 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.98</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.55</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.59</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.93</v>
       </c>
     </row>
@@ -600,6 +617,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1183,7 +1746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1463,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2371,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2731,7 +3294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3509,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002859-洁美科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.98</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.55</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.59</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016517</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015217</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015218</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1162,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1746,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2026,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2764,7 +4639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2934,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3294,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4070,212 +5945,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创新科技混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8304</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>